--- a/REGULAR/OJT/MANALO, CELSA B.xlsx
+++ b/REGULAR/OJT/MANALO, CELSA B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="461">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1411,6 +1411,12 @@
   </si>
   <si>
     <t>2/13/2017</t>
+  </si>
+  <si>
+    <t>7/17,20,21/2023</t>
+  </si>
+  <si>
+    <t>7/12-13/2023</t>
   </si>
 </sst>
 </file>
@@ -3811,7 +3817,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K574" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4189,12 +4195,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K574"/>
+  <dimension ref="A2:K575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A490" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="D502" sqref="D502"/>
+      <selection pane="bottomLeft" activeCell="I505" sqref="I505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,7 +4357,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.232300000000009</v>
+        <v>61.732300000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4361,7 +4367,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185.75</v>
+        <v>186.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15848,13 +15854,15 @@
         <v>45047</v>
       </c>
       <c r="B502" s="20"/>
-      <c r="C502" s="13"/>
+      <c r="C502" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D502" s="39"/>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G502" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
@@ -15866,13 +15874,15 @@
         <v>45078</v>
       </c>
       <c r="B503" s="20"/>
-      <c r="C503" s="13"/>
+      <c r="C503" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G503" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
@@ -15883,9 +15893,13 @@
       <c r="A504" s="40">
         <v>45108</v>
       </c>
-      <c r="B504" s="20"/>
+      <c r="B504" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C504" s="13"/>
-      <c r="D504" s="39"/>
+      <c r="D504" s="39">
+        <v>3</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
       <c r="G504" s="13" t="str">
@@ -15895,13 +15909,15 @@
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="20" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B505" s="20"/>
+      <c r="A505" s="40"/>
+      <c r="B505" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C505" s="13"/>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
@@ -15910,14 +15926,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H505" s="39"/>
+      <c r="H505" s="39">
+        <v>2</v>
+      </c>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="20" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -15935,7 +15955,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15953,7 +15973,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15971,7 +15991,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15989,7 +16009,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -16007,7 +16027,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -16025,7 +16045,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -16043,7 +16063,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -16061,7 +16081,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -16079,7 +16099,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -16097,7 +16117,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -16115,7 +16135,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -16133,7 +16153,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -16151,7 +16171,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -16169,7 +16189,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -16187,7 +16207,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -16205,7 +16225,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -16223,7 +16243,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -16241,7 +16261,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -16259,7 +16279,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -16277,7 +16297,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -16295,7 +16315,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -16313,7 +16333,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -16331,7 +16351,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -16349,7 +16369,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -16367,7 +16387,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -16385,7 +16405,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -16403,7 +16423,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -16421,7 +16441,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -16439,7 +16459,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -16457,7 +16477,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -16475,7 +16495,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -16493,7 +16513,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -16511,7 +16531,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16529,7 +16549,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16547,7 +16567,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16565,7 +16585,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16583,7 +16603,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16601,7 +16621,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16619,7 +16639,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16637,7 +16657,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16655,7 +16675,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16673,7 +16693,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16691,7 +16711,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16709,7 +16729,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16727,7 +16747,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16745,7 +16765,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16763,7 +16783,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16781,7 +16801,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16799,7 +16819,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16817,7 +16837,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16835,43 +16855,43 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>46722</v>
-      </c>
-      <c r="B557" s="15"/>
-      <c r="C557" s="41"/>
-      <c r="D557" s="42"/>
+        <v>46692</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39"/>
       <c r="E557" s="9"/>
-      <c r="F557" s="15"/>
-      <c r="G557" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H557" s="42"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="39"/>
       <c r="I557" s="9"/>
-      <c r="J557" s="12"/>
-      <c r="K557" s="15"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46753</v>
-      </c>
-      <c r="B558" s="20"/>
-      <c r="C558" s="13"/>
-      <c r="D558" s="39"/>
+        <v>46722</v>
+      </c>
+      <c r="B558" s="15"/>
+      <c r="C558" s="41"/>
+      <c r="D558" s="42"/>
       <c r="E558" s="9"/>
-      <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H558" s="39"/>
+      <c r="F558" s="15"/>
+      <c r="G558" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="42"/>
       <c r="I558" s="9"/>
-      <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="J558" s="12"/>
+      <c r="K558" s="15"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16889,7 +16909,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16907,7 +16927,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16925,7 +16945,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16943,7 +16963,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16961,7 +16981,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16979,7 +16999,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16997,7 +17017,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -17015,7 +17035,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -17033,7 +17053,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -17051,7 +17071,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -17069,7 +17089,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -17087,7 +17107,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -17105,7 +17125,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -17123,7 +17143,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -17141,7 +17161,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -17156,6 +17176,24 @@
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="40">
+        <v>47239</v>
+      </c>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
